--- a/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
+++ b/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\website\cmis6\Civilworks cost\IPC Distribution Result\2019-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="package_wise_rpa" sheetId="6" r:id="rId6"/>
     <sheet name="monthly_gob" sheetId="7" r:id="rId7"/>
     <sheet name="monthly_rpa" sheetId="8" r:id="rId8"/>
+    <sheet name="Structure_wise_cost" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="295">
   <si>
     <t xml:space="preserve">Sl No </t>
   </si>
@@ -807,6 +808,111 @@
   <si>
     <t>Jun</t>
   </si>
+  <si>
+    <t>PW-01</t>
+  </si>
+  <si>
+    <t>PW-02</t>
+  </si>
+  <si>
+    <t>PW-03</t>
+  </si>
+  <si>
+    <t>PW-04</t>
+  </si>
+  <si>
+    <t>PW-05</t>
+  </si>
+  <si>
+    <t>PW-06</t>
+  </si>
+  <si>
+    <t>PW-07</t>
+  </si>
+  <si>
+    <t>PW-08</t>
+  </si>
+  <si>
+    <t>PW-09</t>
+  </si>
+  <si>
+    <t>PW-10</t>
+  </si>
+  <si>
+    <t>PW-11</t>
+  </si>
+  <si>
+    <t>PW-12</t>
+  </si>
+  <si>
+    <t>PW-13</t>
+  </si>
+  <si>
+    <t>PW-14</t>
+  </si>
+  <si>
+    <t>PW-15</t>
+  </si>
+  <si>
+    <t>PW-16</t>
+  </si>
+  <si>
+    <t>PW-17</t>
+  </si>
+  <si>
+    <t>PW-18</t>
+  </si>
+  <si>
+    <t>PW-19</t>
+  </si>
+  <si>
+    <t>PW-20</t>
+  </si>
+  <si>
+    <t>PW-21</t>
+  </si>
+  <si>
+    <t>PW-22</t>
+  </si>
+  <si>
+    <t>PW-23</t>
+  </si>
+  <si>
+    <t>PW-24</t>
+  </si>
+  <si>
+    <t>PW-25</t>
+  </si>
+  <si>
+    <t>PW-26</t>
+  </si>
+  <si>
+    <t>PW-27</t>
+  </si>
+  <si>
+    <t>PW-28</t>
+  </si>
+  <si>
+    <t>PW-29</t>
+  </si>
+  <si>
+    <t>PW-30</t>
+  </si>
+  <si>
+    <t>PW-31</t>
+  </si>
+  <si>
+    <t>PW-32</t>
+  </si>
+  <si>
+    <t>PW-33</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
 </sst>
 </file>
 
@@ -829,12 +935,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -864,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -873,6 +985,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33335,8 +33455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33918,4 +34038,744 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="28" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="35" width="0" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="6">
+        <v>246.59</v>
+      </c>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="7">
+        <v>4.91</v>
+      </c>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="7">
+        <v>40.31</v>
+      </c>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="6">
+        <f>SUM(C2:AI2)</f>
+        <v>291.81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="3">
+        <f t="shared" ref="AJ3:AJ12" si="0">SUM(C3:AI3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="6">
+        <v>137.44</v>
+      </c>
+      <c r="E4" s="6">
+        <v>152.63999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <v>450.87</v>
+      </c>
+      <c r="G4" s="6">
+        <v>149.34</v>
+      </c>
+      <c r="H4" s="6">
+        <v>224.43</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="6">
+        <v>712.33</v>
+      </c>
+      <c r="L4" s="6">
+        <v>107.53</v>
+      </c>
+      <c r="M4" s="6">
+        <v>202.07</v>
+      </c>
+      <c r="N4" s="6">
+        <v>455.25</v>
+      </c>
+      <c r="O4" s="6">
+        <v>411.23</v>
+      </c>
+      <c r="P4" s="7">
+        <v>168.6</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="7">
+        <v>323.54000000000002</v>
+      </c>
+      <c r="S4" s="6">
+        <v>683.22</v>
+      </c>
+      <c r="T4" s="7">
+        <v>349.21</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="7">
+        <v>739.81</v>
+      </c>
+      <c r="W4" s="7">
+        <v>191.4</v>
+      </c>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="7">
+        <v>577.75</v>
+      </c>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="7">
+        <v>467.31</v>
+      </c>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+      <c r="AE4" s="4"/>
+      <c r="AF4" s="4"/>
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="6">
+        <f t="shared" si="0"/>
+        <v>6503.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="6">
+        <v>196.26</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6">
+        <v>565.07000000000005</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="6">
+        <v>250.34</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="7">
+        <v>361.81</v>
+      </c>
+      <c r="U5" s="7">
+        <v>331.35</v>
+      </c>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4">
+        <v>81.05</v>
+      </c>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="7">
+        <v>282.06</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>478.6</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="6">
+        <f t="shared" si="0"/>
+        <v>2546.54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>51.09</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="6">
+        <f t="shared" si="0"/>
+        <v>51.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="4"/>
+      <c r="AH8" s="4"/>
+      <c r="AI8" s="4"/>
+      <c r="AJ8" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="6">
+        <v>14.01</v>
+      </c>
+      <c r="E9" s="6">
+        <v>473.29</v>
+      </c>
+      <c r="F9" s="6">
+        <v>263.82</v>
+      </c>
+      <c r="G9" s="6">
+        <v>425.81</v>
+      </c>
+      <c r="H9" s="6">
+        <v>612.82000000000005</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="6">
+        <v>302.14999999999998</v>
+      </c>
+      <c r="M9" s="6">
+        <v>320.79000000000002</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="6">
+        <v>235.97</v>
+      </c>
+      <c r="P9" s="7">
+        <v>638.20000000000005</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>333.94</v>
+      </c>
+      <c r="R9" s="7">
+        <v>398.08</v>
+      </c>
+      <c r="S9" s="6">
+        <v>522.11</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="7">
+        <v>76.84</v>
+      </c>
+      <c r="X9" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>102.27</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>890.42</v>
+      </c>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="6">
+        <f t="shared" si="0"/>
+        <v>5833.0400000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="4"/>
+      <c r="AH10" s="4"/>
+      <c r="AI10" s="4"/>
+      <c r="AJ10" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="4"/>
+      <c r="AH11" s="4"/>
+      <c r="AI11" s="4"/>
+      <c r="AJ11" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="O13" s="2"/>
+      <c r="AJ13" s="5">
+        <f>SUM(AJ2:AJ12)</f>
+        <v>15226.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>293</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
+++ b/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
@@ -34044,8 +34044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN21" sqref="AN21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
+++ b/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="original" sheetId="1" r:id="rId1"/>
@@ -13473,12 +13473,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R104"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="O104" sqref="O104"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19262,7 +19263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -33456,13 +33457,14 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -34027,7 +34029,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O13" s="2"/>
+      <c r="O13" s="2">
+        <f>SUM(O2:O11)</f>
+        <v>972249380.25999999</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O14" s="2"/>
@@ -34044,7 +34049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>

--- a/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
+++ b/Civilworks cost/IPC Distribution Result/2019-20/output.xlsx
@@ -1050,9 +1050,6 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1064,6 +1061,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14913,25 +14913,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -18800,56 +18800,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
+    <row r="75" spans="1:17" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="16">
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="18">
-        <v>0</v>
-      </c>
-      <c r="D75" s="18">
-        <v>0</v>
-      </c>
-      <c r="E75" s="18">
-        <v>0</v>
-      </c>
-      <c r="F75" s="18">
-        <v>0</v>
-      </c>
-      <c r="G75" s="18">
-        <v>0</v>
-      </c>
-      <c r="H75" s="18">
-        <v>0</v>
-      </c>
-      <c r="I75" s="18">
-        <v>0</v>
-      </c>
-      <c r="J75" s="18">
+      <c r="C75" s="17">
+        <v>0</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0</v>
+      </c>
+      <c r="G75" s="17">
+        <v>0</v>
+      </c>
+      <c r="H75" s="17">
+        <v>0</v>
+      </c>
+      <c r="I75" s="17">
+        <v>0</v>
+      </c>
+      <c r="J75" s="17">
         <v>2553536</v>
       </c>
-      <c r="K75" s="18">
-        <v>0</v>
-      </c>
-      <c r="L75" s="18">
-        <v>0</v>
-      </c>
-      <c r="M75" s="18">
-        <v>0</v>
-      </c>
-      <c r="N75" s="18">
+      <c r="K75" s="17">
+        <v>0</v>
+      </c>
+      <c r="L75" s="17">
+        <v>0</v>
+      </c>
+      <c r="M75" s="17">
+        <v>0</v>
+      </c>
+      <c r="N75" s="17">
         <v>2553536</v>
       </c>
-      <c r="O75" s="18" t="s">
+      <c r="O75" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P75" s="18">
         <v>5</v>
       </c>
-      <c r="Q75" s="19">
+      <c r="Q75" s="18">
         <v>6</v>
       </c>
     </row>
@@ -19807,56 +19807,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
+    <row r="94" spans="1:17" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="16">
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="18">
-        <v>0</v>
-      </c>
-      <c r="D94" s="18">
-        <v>0</v>
-      </c>
-      <c r="E94" s="18">
-        <v>0</v>
-      </c>
-      <c r="F94" s="18">
+      <c r="C94" s="17">
+        <v>0</v>
+      </c>
+      <c r="D94" s="17">
+        <v>0</v>
+      </c>
+      <c r="E94" s="17">
+        <v>0</v>
+      </c>
+      <c r="F94" s="17">
         <v>4350622.49</v>
       </c>
-      <c r="G94" s="18">
-        <v>0</v>
-      </c>
-      <c r="H94" s="18">
-        <v>0</v>
-      </c>
-      <c r="I94" s="18">
-        <v>0</v>
-      </c>
-      <c r="J94" s="18">
+      <c r="G94" s="17">
+        <v>0</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0</v>
+      </c>
+      <c r="J94" s="17">
         <v>98437.51</v>
       </c>
-      <c r="K94" s="18">
-        <v>0</v>
-      </c>
-      <c r="L94" s="18">
-        <v>0</v>
-      </c>
-      <c r="M94" s="18">
-        <v>0</v>
-      </c>
-      <c r="N94" s="18">
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="17">
+        <v>0</v>
+      </c>
+      <c r="M94" s="17">
+        <v>0</v>
+      </c>
+      <c r="N94" s="17">
         <v>4449060</v>
       </c>
-      <c r="O94" s="18" t="s">
+      <c r="O94" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="P94" s="19">
+      <c r="P94" s="18">
         <v>9</v>
       </c>
-      <c r="Q94" s="19">
+      <c r="Q94" s="18">
         <v>6</v>
       </c>
     </row>
@@ -20456,7 +20456,7 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="58" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="37" fitToHeight="2" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20467,8 +20467,8 @@
   </sheetPr>
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A73" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94:XFD94"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20492,25 +20492,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" s="13" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
@@ -24379,56 +24379,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
+    <row r="75" spans="1:17" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="16">
         <v>72</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="18">
-        <v>0</v>
-      </c>
-      <c r="D75" s="18">
-        <v>0</v>
-      </c>
-      <c r="E75" s="18">
-        <v>0</v>
-      </c>
-      <c r="F75" s="18">
-        <v>0</v>
-      </c>
-      <c r="G75" s="18">
-        <v>0</v>
-      </c>
-      <c r="H75" s="18">
-        <v>0</v>
-      </c>
-      <c r="I75" s="18">
-        <v>0</v>
-      </c>
-      <c r="J75" s="18">
+      <c r="C75" s="17">
+        <v>0</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0</v>
+      </c>
+      <c r="E75" s="17">
+        <v>0</v>
+      </c>
+      <c r="F75" s="17">
+        <v>0</v>
+      </c>
+      <c r="G75" s="17">
+        <v>0</v>
+      </c>
+      <c r="H75" s="17">
+        <v>0</v>
+      </c>
+      <c r="I75" s="17">
+        <v>0</v>
+      </c>
+      <c r="J75" s="17">
         <v>364791</v>
       </c>
-      <c r="K75" s="18">
-        <v>0</v>
-      </c>
-      <c r="L75" s="18">
-        <v>0</v>
-      </c>
-      <c r="M75" s="18">
-        <v>0</v>
-      </c>
-      <c r="N75" s="18">
+      <c r="K75" s="17">
+        <v>0</v>
+      </c>
+      <c r="L75" s="17">
+        <v>0</v>
+      </c>
+      <c r="M75" s="17">
+        <v>0</v>
+      </c>
+      <c r="N75" s="17">
         <v>364791</v>
       </c>
-      <c r="O75" s="21" t="s">
+      <c r="O75" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="P75" s="19">
+      <c r="P75" s="18">
         <v>5</v>
       </c>
-      <c r="Q75" s="19">
+      <c r="Q75" s="18">
         <v>6</v>
       </c>
     </row>
@@ -25386,56 +25386,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:17" s="20" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
+    <row r="94" spans="1:17" s="19" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="16">
         <v>91</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="18">
-        <v>0</v>
-      </c>
-      <c r="D94" s="18">
-        <v>0</v>
-      </c>
-      <c r="E94" s="18">
-        <v>0</v>
-      </c>
-      <c r="F94" s="18">
+      <c r="C94" s="17">
+        <v>0</v>
+      </c>
+      <c r="D94" s="17">
+        <v>0</v>
+      </c>
+      <c r="E94" s="17">
+        <v>0</v>
+      </c>
+      <c r="F94" s="17">
         <v>621517.5</v>
       </c>
-      <c r="G94" s="18">
-        <v>0</v>
-      </c>
-      <c r="H94" s="18">
-        <v>0</v>
-      </c>
-      <c r="I94" s="18">
-        <v>0</v>
-      </c>
-      <c r="J94" s="18">
+      <c r="G94" s="17">
+        <v>0</v>
+      </c>
+      <c r="H94" s="17">
+        <v>0</v>
+      </c>
+      <c r="I94" s="17">
+        <v>0</v>
+      </c>
+      <c r="J94" s="17">
         <v>14062.5</v>
       </c>
-      <c r="K94" s="18">
-        <v>0</v>
-      </c>
-      <c r="L94" s="18">
-        <v>0</v>
-      </c>
-      <c r="M94" s="18">
-        <v>0</v>
-      </c>
-      <c r="N94" s="18">
+      <c r="K94" s="17">
+        <v>0</v>
+      </c>
+      <c r="L94" s="17">
+        <v>0</v>
+      </c>
+      <c r="M94" s="17">
+        <v>0</v>
+      </c>
+      <c r="N94" s="17">
         <v>635580</v>
       </c>
-      <c r="O94" s="21" t="s">
+      <c r="O94" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="P94" s="19">
+      <c r="P94" s="18">
         <v>9</v>
       </c>
-      <c r="Q94" s="19">
+      <c r="Q94" s="18">
         <v>6</v>
       </c>
     </row>
@@ -26035,7 +26035,7 @@
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="59" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="37" fitToHeight="2" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
